--- a/3-course-6-semester/econometrics/task-5/task-5.2.xlsx
+++ b/3-course-6-semester/econometrics/task-5/task-5.2.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bronn\Documents\github\university\3-course-6-semester\econometrics\task-5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58234C57-82C7-460D-9B78-F7C5D4CF78D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4AAD6A6-F57C-4B5E-87E4-91E131AD9C31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2355" yWindow="4440" windowWidth="15375" windowHeight="8085" tabRatio="553" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Задача 2" sheetId="1" r:id="rId1"/>
     <sheet name="Задача 5" sheetId="7" r:id="rId2"/>
+    <sheet name="Лист1" sheetId="8" r:id="rId3"/>
+    <sheet name="Лист2" sheetId="9" r:id="rId4"/>
+    <sheet name="Лист3" sheetId="10" r:id="rId5"/>
+    <sheet name="Лист4" sheetId="11" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Задача 2'!$F$43:$I$52</definedName>
@@ -39,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="71">
   <si>
     <t>x</t>
   </si>
@@ -219,6 +223,75 @@
       </rPr>
       <t xml:space="preserve"> =</t>
     </r>
+  </si>
+  <si>
+    <t>R^2</t>
+  </si>
+  <si>
+    <t>F факт</t>
+  </si>
+  <si>
+    <t>t табл</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>mrxy</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>da</t>
+  </si>
+  <si>
+    <t>db</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>dz</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>ta</t>
+  </si>
+  <si>
+    <t>tb</t>
+  </si>
+  <si>
+    <t>tc</t>
+  </si>
+  <si>
+    <t>t tabl</t>
+  </si>
+  <si>
+    <t>№</t>
+  </si>
+  <si>
+    <t>пол</t>
+  </si>
+  <si>
+    <t>наклон</t>
+  </si>
+  <si>
+    <t>технология</t>
+  </si>
+  <si>
+    <t>lny</t>
+  </si>
+  <si>
+    <t>lnx</t>
+  </si>
+  <si>
+    <t>Предсказанное lny</t>
+  </si>
+  <si>
+    <t>ДЗ</t>
   </si>
 </sst>
 </file>
@@ -611,7 +684,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -684,6 +757,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -910,6 +984,1270 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1841072800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>пол График остатков</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист2!$E$6:$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист2!$C$159:$C$178</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>3.3136852895950781</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.2113581104550235</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.98821117375705114</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.4700153767298829</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3.5567905522750962</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.5192209123526368</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.7826755509994854</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.2113581104550235</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-4.9838485585272636</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.82528655783257676</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.0717580727831901</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.4065647794373035</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-4.9958318860715565</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.5448072247308104</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-5.3008713480266536</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-3.7886418895449765</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.2113581104550235</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.6503994442514767</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.68631471040492187</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.1681139284435176E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9E00-422A-9A36-FE750AE0D299}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1523937760"/>
+        <c:axId val="1523918624"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1523937760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>пол</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1523918624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1523918624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Остатки</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1523937760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>lnx </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>График остатков</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист3!$E$5:$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0413926851582251</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0413926851582251</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0791812460476249</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1139433523068367</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1760912590556813</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2304489213782739</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2304489213782739</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.255272505103306</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.255272505103306</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2787536009528289</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.2787536009528289</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.3424226808222062</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист3!$C$158:$C$169</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>-9.448056234166935E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.1929895193057769E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.6033598994009726E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12406829988248957</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1043613251092275E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-3.4304815498254815E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.8090458570659615E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.4785630628957325E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.8024473467932527E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.3280889265748552E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.3280889265748552E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-6.2976121386053574E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F338-4288-A95A-3A4748AF87FD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1588402816"/>
+        <c:axId val="1588400320"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1588402816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>lnx</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1588400320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1588400320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Остатки</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1588402816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>z </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>График остатков</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист3!$F$5:$F$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист3!$C$158:$C$169</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>-9.448056234166935E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.1929895193057769E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.6033598994009726E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12406829988248957</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1043613251092275E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-3.4304815498254815E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.8090458570659615E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.4785630628957325E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.8024473467932527E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.3280889265748552E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.3280889265748552E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-6.2976121386053574E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3D23-4655-B9A2-9D40E8A25696}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="896800848"/>
+        <c:axId val="896800432"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="896800848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>z</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="896800432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="896800432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Остатки</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="896800848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>lnx </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>График остатков</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист3!$E$5:$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0413926851582251</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0413926851582251</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0791812460476249</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1139433523068367</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1760912590556813</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2304489213782739</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2304489213782739</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.255272505103306</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.255272505103306</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2787536009528289</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.2787536009528289</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.3424226808222062</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист3!$K$45:$K$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>-9.448056234166935E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.1929895193057769E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.6033598994009726E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12406829988248957</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1043613251092275E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-3.4304815498254815E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.8090458570659615E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.4785630628957325E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.8024473467932527E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.3280889265748552E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.3280889265748552E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-6.2976121386053574E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A50C-4D73-8681-58D7F43448DA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1523923616"/>
+        <c:axId val="1523929440"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1523923616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>lnx</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1523929440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1523929440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Остатки</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1523923616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>z </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>График остатков</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист3!$F$5:$F$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист3!$K$45:$K$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>-9.448056234166935E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.1929895193057769E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.6033598994009726E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12406829988248957</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1043613251092275E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-3.4304815498254815E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.8090458570659615E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.4785630628957325E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.8024473467932527E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.3280889265748552E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.3280889265748552E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-6.2976121386053574E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-35B8-43EB-BB22-9C801693A151}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1523936928"/>
+        <c:axId val="1523921120"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1523936928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>z</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1523921120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1523921120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Остатки</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1523936928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1350,6 +2688,1746 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1882907600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>x </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>График остатков</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист2!$C$6:$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист2!$I$51:$I$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>3.6798511338064692</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.2716202181062854</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.2079106802838879</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5850960706248891</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3.8581010905314237</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2.4921758698286283</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.3955859442617253</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.2716202181062854</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-4.7108966591656554</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.61614159598407525</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.62189717846633386</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.2541370953782192</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-5.2546044659858104</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.3143932837112686</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-5.0184005539207241</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-3.7283797818937146</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.2716202181062854</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.6681235935606722</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.32014886619353078</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.25460446598581044</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A959-475B-8644-5956E6C4853A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1523929856"/>
+        <c:axId val="1523917376"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1523929856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>x</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1523917376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1523917376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Остатки</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1523929856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>пол График остатков</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист2!$E$6:$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист2!$I$51:$I$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>3.6798511338064692</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.2716202181062854</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.2079106802838879</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5850960706248891</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3.8581010905314237</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2.4921758698286283</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.3955859442617253</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.2716202181062854</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-4.7108966591656554</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.61614159598407525</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.62189717846633386</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.2541370953782192</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-5.2546044659858104</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.3143932837112686</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-5.0184005539207241</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-3.7283797818937146</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.2716202181062854</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.6681235935606722</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.32014886619353078</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.25460446598581044</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-ED34-4219-BF66-0FBD98001720}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1523924448"/>
+        <c:axId val="1523916960"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1523924448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>пол</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1523916960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1523916960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Остатки</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1523924448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>x </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>График остатков</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист2!$C$6:$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист2!$I$106:$I$125</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>3.529848945711894</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.2192426652791966</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.0581734902197866</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.563553616026887</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3.7455530194143449</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.9570594792748039</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.6309629566568731</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.2192426652791966</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-4.8602892849010786</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.73642969984700102</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.81471927772643937</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.2987746154594646</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-5.1614594094503978</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.4443828948650292</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-5.1255828308497762</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-3.7807573347208034</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.2192426652791966</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.6351490553152459</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.470151054288106</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.16145940945039783</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-346A-496C-8B11-200B5F855185}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1587406128"/>
+        <c:axId val="1587407792"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1587406128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>x</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1587407792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1587407792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Остатки</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1587406128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>наклон График остатков</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист2!$D$6:$D$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист2!$I$106:$I$125</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>3.529848945711894</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.2192426652791966</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.0581734902197866</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.563553616026887</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3.7455530194143449</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.9570594792748039</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.6309629566568731</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.2192426652791966</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-4.8602892849010786</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.73642969984700102</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.81471927772643937</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.2987746154594646</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-5.1614594094503978</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.4443828948650292</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-5.1255828308497762</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-3.7807573347208034</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.2192426652791966</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.6351490553152459</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.470151054288106</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.16145940945039783</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-849D-449E-9081-7944275EEE14}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1738520416"/>
+        <c:axId val="1738521248"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1738520416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>наклон</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1738521248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1738521248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Остатки</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1738520416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>x </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>График остатков</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист2!$C$6:$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист2!$C$159:$C$178</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>3.3136852895950781</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.2113581104550235</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.98821117375705114</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.4700153767298829</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3.5567905522750962</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.5192209123526368</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.7826755509994854</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.2113581104550235</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-4.9838485585272636</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.82528655783257676</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.0717580727831901</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.4065647794373035</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-4.9958318860715565</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.5448072247308104</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-5.3008713480266536</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-3.7886418895449765</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.2113581104550235</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.6503994442514767</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.68631471040492187</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.1681139284435176E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-893F-420D-9027-A14B5D362619}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1523931104"/>
+        <c:axId val="1523922784"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1523931104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>x</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1523922784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1523922784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Остатки</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1523931104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>наклон График остатков</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист2!$D$6:$D$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист2!$C$159:$C$178</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>3.3136852895950781</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.2113581104550235</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.98821117375705114</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.4700153767298829</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3.5567905522750962</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.5192209123526368</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.7826755509994854</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.2113581104550235</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-4.9838485585272636</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.82528655783257676</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.0717580727831901</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.4065647794373035</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-4.9958318860715565</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.5448072247308104</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-5.3008713480266536</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-3.7886418895449765</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.2113581104550235</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.6503994442514767</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.68631471040492187</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.1681139284435176E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A75C-4A32-8ADD-CC20865E11B7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1523934848"/>
+        <c:axId val="1523935264"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1523934848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>наклон</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1523935264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1523935264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Остатки</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1523934848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1677,6 +4755,1447 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B70833D-3F89-4D81-A293-D7575C7D7467}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2495551" y="295274"/>
+          <a:ext cx="6076950" cy="5819775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>По 20 студентам изучается зависимоть между результатами</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+            <a:t> зимней </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>(x) </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+            <a:t>и летней сессий (</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>y). </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+            <a:t>Указана принадлежность студента к группе </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>A </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+            <a:t>или </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>B</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+            <a:t>Линейная регрессия оказалась</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>: y = 3,2014 + 0,2085*x</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>x </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+            <a:t>и </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>y - </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+            <a:t>средний балл за экзамены у студента</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="ru-RU" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+            <a:t>Нужно сделать вывод</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="ru-RU" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="ru-RU" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Ryx = 0,188</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+            <a:t>Строиться уравнение регрессии с учётом фиктивной переменной сдвига </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="ru-RU" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>y</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>xz = a + b*x + c*z + e</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>z = 1 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+            <a:t>для группы Б</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="ru-RU" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+            <a:t>Найти систему нормальных уравнений если известно, что</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+            <a:t>сумма </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>y = 80,1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+            <a:t>сумма </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>x = 77,1</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+            <a:t>сумма </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>z = 15</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+            <a:t>сумма </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>y x = 310,13</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+            <a:t>сумма </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>x^2 = 303,67</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>сумма </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>z x = 59,3</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>сумма </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>y z = 58,5</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>сумма </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>z^2 = 15</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>80,1 = 20*a</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" baseline="0">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t> + 77,1*b + 15*c</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" baseline="0">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>310,13 = 77,1*a +303,67*b + 59,3*c</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" baseline="0">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>58,5 = 15*a + 59,3*b + 15*c</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" baseline="0">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" baseline="0">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>y  = 3,129 + 0,335*x - 0,552*z</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D49BE4E-5E1A-426A-8733-439969BC1F85}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3990975" y="295274"/>
+          <a:ext cx="6076950" cy="3924301"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>По</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+            <a:t> 20 работникам строится регрессия заработной платы (</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>y, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+            <a:t>тыс. руб</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+            <a:t>, возраста и пола работника</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="ru-RU">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>С фиктивной сдвига</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91B5FC35-1234-43A6-B146-5809A4D19B07}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{199179DD-055A-47DF-9640-377126B1485A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Диаграмма 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{237A4104-B6AF-45D7-B5FB-012B34BAA07C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Диаграмма 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{939935CF-E60C-4E38-B2E5-0EBDD1DAC47C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Диаграмма 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73F04CC0-4BB5-4FE8-A194-D73B358D332C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Диаграмма 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{835D35C9-2E00-4F3E-8AD5-FD7446CBC73B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Диаграмма 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A53DB496-92EA-41EC-80E4-68417A401DCB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24AAB79E-65C5-4342-958F-D2AA1DB303BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4229100" y="171449"/>
+          <a:ext cx="5153025" cy="5076825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>Имеются</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" baseline="0">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t> данные о производстве продукции (тыс. ед.) - </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" baseline="0">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>y</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" baseline="0">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>, производительностью труда</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" baseline="0">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t> - x (</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" baseline="0">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>ед.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" baseline="0">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" baseline="0">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>час) и используемое прогрессивной технологии по 12 заводам концерна.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="ru-RU" baseline="0">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>построить уравнение регрессии</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" baseline="0">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t> с фиктивной переменной </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" baseline="0">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>z </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" baseline="0">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>в виде степенной функции</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="ru-RU" baseline="0">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="ru-RU" baseline="0">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" baseline="0">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>-1,3596+ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" baseline="0">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>+0,2092</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" baseline="0">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>z</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" baseline="0">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="ru-RU" baseline="0">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="ru-RU" baseline="0">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" baseline="0">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>y = 0,2567*X^(1,66)*c^(1,232692)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" baseline="0">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" baseline="0">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>Найти ранговый коэффициент корреляции спирмена</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="ru-RU" baseline="0">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>R</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" baseline="0">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t> = </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>0,792</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="ru-RU">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" b="1">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>ДЗ</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>По</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" baseline="0">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t> 11 регионам зависимость ВРП (тыс. руб</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" baseline="0">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" baseline="0">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>душ населения) </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" baseline="0">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>y</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" baseline="0">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>, фонды</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" baseline="0">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>x</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" baseline="0">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="ru-RU" baseline="0">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" baseline="0">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>Построить линейное уравнение регрессии и оценить его качество</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" baseline="0">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>Дать график зависимоти остатков от значений </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" baseline="0">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>x</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" baseline="0">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>Применить тест Глейзера при </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" baseline="0">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>C = 0.5, 1, 2, -1, 0.5</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" baseline="0">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>Применить обобщённое МНК исходя из рузультатов пункта 3</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" baseline="0">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DFCC992-F3F0-437A-9730-F961660F886B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27D9EC4F-BDEA-4D37-B841-05F7CDA81872}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Диаграмма 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D232A14A-56CD-4DD9-A447-15BA43E4E74D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Диаграмма 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D43D961-9F9A-49F5-8CB8-87F90E5FE46A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1942,8 +6461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:W67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2921,8 +7440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F6D4895-2D3A-43BC-81A9-5EE1DF9E81C8}">
   <dimension ref="A3:T84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M84" sqref="M84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3789,4 +8308,3400 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92C3D346-A941-47ED-804D-D582D5A357E1}">
+  <dimension ref="B20:K69"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G57" sqref="G57"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20">
+        <f>0.188^2</f>
+        <v>3.5344E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23">
+        <f>C20/(1-C20)*(20-2)</f>
+        <v>0.65950141812210783</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26">
+        <f>_xlfn.T.INV.2T(0.05,18)</f>
+        <v>2.1009220402410378</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28">
+        <f>C23^0.5</f>
+        <v>0.81209692655625032</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30">
+        <f>0.188/((1-C20)/(20-2))^0.5</f>
+        <v>0.81209692655625032</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>20</v>
+      </c>
+      <c r="C37">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="D37">
+        <v>15</v>
+      </c>
+      <c r="G37">
+        <f>MDETERM(B37:D39)</f>
+        <v>440.20000000000465</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="C38">
+        <v>303.67</v>
+      </c>
+      <c r="D38">
+        <v>59.3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>15</v>
+      </c>
+      <c r="C39">
+        <v>59.3</v>
+      </c>
+      <c r="D39">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="F43" t="s">
+        <v>54</v>
+      </c>
+      <c r="G43">
+        <f>MDETERM(B44:D46)</f>
+        <v>1377.2760000000183</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>80.099999999999994</v>
+      </c>
+      <c r="C44">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="D44">
+        <v>15</v>
+      </c>
+      <c r="F44" t="s">
+        <v>53</v>
+      </c>
+      <c r="G44">
+        <f>G43/G37</f>
+        <v>3.1287505679236793</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>310.13</v>
+      </c>
+      <c r="C45">
+        <v>303.67</v>
+      </c>
+      <c r="D45">
+        <v>59.3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>58.5</v>
+      </c>
+      <c r="C46">
+        <v>59.3</v>
+      </c>
+      <c r="D46">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K48">
+        <f>100-16.6</f>
+        <v>83.4</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>20</v>
+      </c>
+      <c r="C50">
+        <v>80.099999999999994</v>
+      </c>
+      <c r="D50">
+        <v>15</v>
+      </c>
+      <c r="F50" t="s">
+        <v>55</v>
+      </c>
+      <c r="G50">
+        <f>MDETERM(B50:D52)</f>
+        <v>147.30000000000305</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="C51">
+        <v>310.13</v>
+      </c>
+      <c r="D51">
+        <v>59.3</v>
+      </c>
+      <c r="F51" t="s">
+        <v>56</v>
+      </c>
+      <c r="G51">
+        <f>G50/G37</f>
+        <v>0.33462062698773626</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>15</v>
+      </c>
+      <c r="C52">
+        <v>58.5</v>
+      </c>
+      <c r="D52">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>20</v>
+      </c>
+      <c r="C55">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="D55">
+        <v>80.099999999999994</v>
+      </c>
+      <c r="F55" t="s">
+        <v>57</v>
+      </c>
+      <c r="G55">
+        <f>MDETERM(B55:D57)</f>
+        <v>-242.82200000000256</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="C56">
+        <v>303.67</v>
+      </c>
+      <c r="D56">
+        <v>310.13</v>
+      </c>
+      <c r="F56" t="s">
+        <v>58</v>
+      </c>
+      <c r="G56">
+        <f>G55/G37</f>
+        <v>-0.55161744661517487</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>15</v>
+      </c>
+      <c r="C57">
+        <v>59.3</v>
+      </c>
+      <c r="D57">
+        <v>58.5</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>48</v>
+      </c>
+      <c r="C60">
+        <f>0.166</f>
+        <v>0.16600000000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>49</v>
+      </c>
+      <c r="C61">
+        <f>(C60/(1-C60))*(20-2-1)/2</f>
+        <v>1.6918465227817747</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>59</v>
+      </c>
+      <c r="C65">
+        <v>3.27</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>60</v>
+      </c>
+      <c r="C66">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>61</v>
+      </c>
+      <c r="C67">
+        <v>-1.6339999999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>62</v>
+      </c>
+      <c r="C69">
+        <f>_xlfn.T.INV.2T(0.05,17)</f>
+        <v>2.109815577833317</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08F0FFAC-54A5-4528-9089-50AD04C0A832}">
+  <dimension ref="A5:O178"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D150" sqref="D150"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>30</v>
+      </c>
+      <c r="C6">
+        <v>29</v>
+      </c>
+      <c r="D6">
+        <f>C6*E6</f>
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>40</v>
+      </c>
+      <c r="C7">
+        <v>40</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ref="D7:D25" si="0">C7*E7</f>
+        <v>40</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>30</v>
+      </c>
+      <c r="C8">
+        <v>36</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>32</v>
+      </c>
+      <c r="C9">
+        <v>32</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>23</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>35</v>
+      </c>
+      <c r="C11">
+        <v>45</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>35</v>
+      </c>
+      <c r="C12">
+        <v>38</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>8</v>
+      </c>
+      <c r="B13">
+        <v>40</v>
+      </c>
+      <c r="C13">
+        <v>40</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>9</v>
+      </c>
+      <c r="B14">
+        <v>38</v>
+      </c>
+      <c r="C14">
+        <v>50</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>10</v>
+      </c>
+      <c r="B15">
+        <v>40</v>
+      </c>
+      <c r="C15">
+        <v>47</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>11</v>
+      </c>
+      <c r="B16">
+        <v>25</v>
+      </c>
+      <c r="C16">
+        <v>28</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>12</v>
+      </c>
+      <c r="B17">
+        <v>35</v>
+      </c>
+      <c r="C17">
+        <v>30</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>13</v>
+      </c>
+      <c r="B18">
+        <v>20</v>
+      </c>
+      <c r="C18">
+        <v>25</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>14</v>
+      </c>
+      <c r="B19">
+        <v>40</v>
+      </c>
+      <c r="C19">
+        <v>48</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>15</v>
+      </c>
+      <c r="B20">
+        <v>22</v>
+      </c>
+      <c r="C20">
+        <v>30</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>16</v>
+      </c>
+      <c r="B21">
+        <v>32</v>
+      </c>
+      <c r="C21">
+        <v>40</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>17</v>
+      </c>
+      <c r="B22">
+        <v>39</v>
+      </c>
+      <c r="C22">
+        <v>40</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>18</v>
+      </c>
+      <c r="B23">
+        <v>36</v>
+      </c>
+      <c r="C23">
+        <v>38</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>19</v>
+      </c>
+      <c r="B24">
+        <v>26</v>
+      </c>
+      <c r="C24">
+        <v>29</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>20</v>
+      </c>
+      <c r="B25">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>25</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G28" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="H28" s="12"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G29" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H29" s="9">
+        <v>0.8616991649331821</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G30" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30" s="9">
+        <v>0.74252545084654342</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G31" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H31" s="9">
+        <v>0.71223432741672499</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G32" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H32" s="9">
+        <v>3.7206240615556712</v>
+      </c>
+    </row>
+    <row r="33" spans="7:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G33" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H33" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="7:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G36" s="11"/>
+      <c r="H36" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J36" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K36" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L36" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G37" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H37" s="9">
+        <v>2</v>
+      </c>
+      <c r="I37" s="9">
+        <v>678.66826207374072</v>
+      </c>
+      <c r="J37" s="9">
+        <v>339.33413103687036</v>
+      </c>
+      <c r="K37" s="9">
+        <v>24.51297168184939</v>
+      </c>
+      <c r="L37" s="9">
+        <v>9.8003504079035474E-6</v>
+      </c>
+    </row>
+    <row r="38" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G38" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H38" s="9">
+        <v>17</v>
+      </c>
+      <c r="I38" s="9">
+        <v>235.33173792625931</v>
+      </c>
+      <c r="J38" s="9">
+        <v>13.843043407427018</v>
+      </c>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+    </row>
+    <row r="39" spans="7:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G39" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H39" s="10">
+        <v>19</v>
+      </c>
+      <c r="I39" s="10">
+        <v>914</v>
+      </c>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+    </row>
+    <row r="40" spans="7:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G41" s="11"/>
+      <c r="H41" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I41" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J41" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K41" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L41" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M41" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="N41" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="O41" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G42" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H42" s="9">
+        <v>6.0708499221049053</v>
+      </c>
+      <c r="I42" s="9">
+        <v>3.8134321113517564</v>
+      </c>
+      <c r="J42" s="9">
+        <v>1.5919648612684905</v>
+      </c>
+      <c r="K42" s="9">
+        <v>0.12981516417960065</v>
+      </c>
+      <c r="L42" s="9">
+        <v>-1.9747885514348269</v>
+      </c>
+      <c r="M42" s="9">
+        <v>14.116488395644637</v>
+      </c>
+      <c r="N42" s="9">
+        <v>-1.9747885514348269</v>
+      </c>
+      <c r="O42" s="9">
+        <v>14.116488395644637</v>
+      </c>
+    </row>
+    <row r="43" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G43" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H43" s="9">
+        <v>0.69825168772719393</v>
+      </c>
+      <c r="I43" s="9">
+        <v>0.10724701794857831</v>
+      </c>
+      <c r="J43" s="9">
+        <v>6.5106862743911851</v>
+      </c>
+      <c r="K43" s="9">
+        <v>5.3345827506026174E-6</v>
+      </c>
+      <c r="L43" s="9">
+        <v>0.47198025858311404</v>
+      </c>
+      <c r="M43" s="9">
+        <v>0.92452311687127375</v>
+      </c>
+      <c r="N43" s="9">
+        <v>0.47198025858311404</v>
+      </c>
+      <c r="O43" s="9">
+        <v>0.92452311687127375</v>
+      </c>
+    </row>
+    <row r="44" spans="7:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G44" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H44" s="10">
+        <v>1.7274623507010565</v>
+      </c>
+      <c r="I44" s="10">
+        <v>1.7462323689187309</v>
+      </c>
+      <c r="J44" s="10">
+        <v>0.98925113372552087</v>
+      </c>
+      <c r="K44" s="10">
+        <v>0.33641243987346636</v>
+      </c>
+      <c r="L44" s="10">
+        <v>-1.9567659037604577</v>
+      </c>
+      <c r="M44" s="10">
+        <v>5.4116906051625708</v>
+      </c>
+      <c r="N44" s="10">
+        <v>-1.9567659037604577</v>
+      </c>
+      <c r="O44" s="10">
+        <v>5.4116906051625708</v>
+      </c>
+    </row>
+    <row r="48" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G48" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49" spans="7:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="50" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G50" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H50" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I50" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="51" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G51" s="9">
+        <v>1</v>
+      </c>
+      <c r="H51" s="9">
+        <v>26.320148866193531</v>
+      </c>
+      <c r="I51" s="9">
+        <v>3.6798511338064692</v>
+      </c>
+    </row>
+    <row r="52" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G52" s="9">
+        <v>2</v>
+      </c>
+      <c r="H52" s="9">
+        <v>35.728379781893715</v>
+      </c>
+      <c r="I52" s="9">
+        <v>4.2716202181062854</v>
+      </c>
+    </row>
+    <row r="53" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G53" s="9">
+        <v>3</v>
+      </c>
+      <c r="H53" s="9">
+        <v>31.207910680283888</v>
+      </c>
+      <c r="I53" s="9">
+        <v>-1.2079106802838879</v>
+      </c>
+    </row>
+    <row r="54" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G54" s="9">
+        <v>4</v>
+      </c>
+      <c r="H54" s="9">
+        <v>28.414903929375111</v>
+      </c>
+      <c r="I54" s="9">
+        <v>3.5850960706248891</v>
+      </c>
+    </row>
+    <row r="55" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G55" s="9">
+        <v>5</v>
+      </c>
+      <c r="H55" s="9">
+        <v>23.858101090531424</v>
+      </c>
+      <c r="I55" s="9">
+        <v>-3.8581010905314237</v>
+      </c>
+    </row>
+    <row r="56" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G56" s="9">
+        <v>6</v>
+      </c>
+      <c r="H56" s="9">
+        <v>37.492175869828628</v>
+      </c>
+      <c r="I56" s="9">
+        <v>-2.4921758698286283</v>
+      </c>
+    </row>
+    <row r="57" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G57" s="9">
+        <v>7</v>
+      </c>
+      <c r="H57" s="9">
+        <v>32.604414055738275</v>
+      </c>
+      <c r="I57" s="9">
+        <v>2.3955859442617253</v>
+      </c>
+    </row>
+    <row r="58" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G58" s="9">
+        <v>8</v>
+      </c>
+      <c r="H58" s="9">
+        <v>35.728379781893715</v>
+      </c>
+      <c r="I58" s="9">
+        <v>4.2716202181062854</v>
+      </c>
+    </row>
+    <row r="59" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G59" s="9">
+        <v>9</v>
+      </c>
+      <c r="H59" s="9">
+        <v>42.710896659165655</v>
+      </c>
+      <c r="I59" s="9">
+        <v>-4.7108966591656554</v>
+      </c>
+    </row>
+    <row r="60" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G60" s="9">
+        <v>10</v>
+      </c>
+      <c r="H60" s="9">
+        <v>40.616141595984075</v>
+      </c>
+      <c r="I60" s="9">
+        <v>-0.61614159598407525</v>
+      </c>
+    </row>
+    <row r="61" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G61" s="9">
+        <v>11</v>
+      </c>
+      <c r="H61" s="9">
+        <v>25.621897178466334</v>
+      </c>
+      <c r="I61" s="9">
+        <v>-0.62189717846633386</v>
+      </c>
+    </row>
+    <row r="62" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G62" s="9">
+        <v>12</v>
+      </c>
+      <c r="H62" s="9">
+        <v>28.745862904621781</v>
+      </c>
+      <c r="I62" s="9">
+        <v>6.2541370953782192</v>
+      </c>
+    </row>
+    <row r="63" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G63" s="9">
+        <v>13</v>
+      </c>
+      <c r="H63" s="9">
+        <v>25.25460446598581</v>
+      </c>
+      <c r="I63" s="9">
+        <v>-5.2546044659858104</v>
+      </c>
+    </row>
+    <row r="64" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G64" s="9">
+        <v>14</v>
+      </c>
+      <c r="H64" s="9">
+        <v>41.314393283711269</v>
+      </c>
+      <c r="I64" s="9">
+        <v>-1.3143932837112686</v>
+      </c>
+    </row>
+    <row r="65" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G65" s="9">
+        <v>15</v>
+      </c>
+      <c r="H65" s="9">
+        <v>27.018400553920724</v>
+      </c>
+      <c r="I65" s="9">
+        <v>-5.0184005539207241</v>
+      </c>
+    </row>
+    <row r="66" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G66" s="9">
+        <v>16</v>
+      </c>
+      <c r="H66" s="9">
+        <v>35.728379781893715</v>
+      </c>
+      <c r="I66" s="9">
+        <v>-3.7283797818937146</v>
+      </c>
+    </row>
+    <row r="67" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G67" s="9">
+        <v>17</v>
+      </c>
+      <c r="H67" s="9">
+        <v>35.728379781893715</v>
+      </c>
+      <c r="I67" s="9">
+        <v>3.2716202181062854</v>
+      </c>
+    </row>
+    <row r="68" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G68" s="9">
+        <v>18</v>
+      </c>
+      <c r="H68" s="9">
+        <v>34.331876406439328</v>
+      </c>
+      <c r="I68" s="9">
+        <v>1.6681235935606722</v>
+      </c>
+    </row>
+    <row r="69" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G69" s="9">
+        <v>19</v>
+      </c>
+      <c r="H69" s="9">
+        <v>26.320148866193531</v>
+      </c>
+      <c r="I69" s="9">
+        <v>-0.32014886619353078</v>
+      </c>
+    </row>
+    <row r="70" spans="7:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G70" s="10">
+        <v>20</v>
+      </c>
+      <c r="H70" s="10">
+        <v>25.25460446598581</v>
+      </c>
+      <c r="I70" s="10">
+        <v>-0.25460446598581044</v>
+      </c>
+    </row>
+    <row r="81" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G81" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="7:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="83" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G83" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="H83" s="12"/>
+    </row>
+    <row r="84" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G84" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H84" s="9">
+        <v>0.86270669738780104</v>
+      </c>
+    </row>
+    <row r="85" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G85" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H85" s="9">
+        <v>0.74426284571776691</v>
+      </c>
+    </row>
+    <row r="86" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G86" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H86" s="9">
+        <v>0.71417612168456301</v>
+      </c>
+    </row>
+    <row r="87" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G87" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H87" s="9">
+        <v>3.7080497411947131</v>
+      </c>
+    </row>
+    <row r="88" spans="7:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G88" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H88" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="90" spans="7:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G90" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G91" s="11"/>
+      <c r="H91" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I91" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J91" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K91" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L91" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="92" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G92" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H92" s="9">
+        <v>2</v>
+      </c>
+      <c r="I92" s="9">
+        <v>680.25624098603896</v>
+      </c>
+      <c r="J92" s="9">
+        <v>340.12812049301948</v>
+      </c>
+      <c r="K92" s="9">
+        <v>24.737251051207632</v>
+      </c>
+      <c r="L92" s="9">
+        <v>9.2522538570182808E-6</v>
+      </c>
+    </row>
+    <row r="93" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G93" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H93" s="9">
+        <v>17</v>
+      </c>
+      <c r="I93" s="9">
+        <v>233.74375901396104</v>
+      </c>
+      <c r="J93" s="9">
+        <v>13.749632883174179</v>
+      </c>
+      <c r="K93" s="9"/>
+      <c r="L93" s="9"/>
+    </row>
+    <row r="94" spans="7:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G94" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H94" s="10">
+        <v>19</v>
+      </c>
+      <c r="I94" s="10">
+        <v>914</v>
+      </c>
+      <c r="J94" s="10"/>
+      <c r="K94" s="10"/>
+      <c r="L94" s="10"/>
+    </row>
+    <row r="95" spans="7:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="96" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G96" s="11"/>
+      <c r="H96" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I96" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J96" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K96" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L96" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M96" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="N96" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="O96" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="97" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G97" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H97" s="9">
+        <v>7.4626295339997197</v>
+      </c>
+      <c r="I97" s="9">
+        <v>3.9758721035805586</v>
+      </c>
+      <c r="J97" s="9">
+        <v>1.8769792738753046</v>
+      </c>
+      <c r="K97" s="9">
+        <v>7.7792351067184809E-2</v>
+      </c>
+      <c r="L97" s="9">
+        <v>-0.92572736560746449</v>
+      </c>
+      <c r="M97" s="9">
+        <v>15.850986433606899</v>
+      </c>
+      <c r="N97" s="9">
+        <v>-0.92572736560746449</v>
+      </c>
+      <c r="O97" s="9">
+        <v>15.850986433606899</v>
+      </c>
+    </row>
+    <row r="98" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G98" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H98" s="9">
+        <v>0.65543177656166896</v>
+      </c>
+      <c r="I98" s="9">
+        <v>0.12225864281781332</v>
+      </c>
+      <c r="J98" s="9">
+        <v>5.3610261119811069</v>
+      </c>
+      <c r="K98" s="9">
+        <v>5.1855848732918694E-5</v>
+      </c>
+      <c r="L98" s="9">
+        <v>0.39748858741988669</v>
+      </c>
+      <c r="M98" s="9">
+        <v>0.91337496570345056</v>
+      </c>
+      <c r="N98" s="9">
+        <v>0.39748858741988669</v>
+      </c>
+      <c r="O98" s="9">
+        <v>0.91337496570345056</v>
+      </c>
+    </row>
+    <row r="99" spans="7:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G99" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="H99" s="10">
+        <v>5.2521418456358659E-2</v>
+      </c>
+      <c r="I99" s="10">
+        <v>5.0059947321317494E-2</v>
+      </c>
+      <c r="J99" s="10">
+        <v>1.0491704699416049</v>
+      </c>
+      <c r="K99" s="10">
+        <v>0.3087871151228857</v>
+      </c>
+      <c r="L99" s="10">
+        <v>-5.3095838227672221E-2</v>
+      </c>
+      <c r="M99" s="10">
+        <v>0.15813867514038954</v>
+      </c>
+      <c r="N99" s="10">
+        <v>-5.3095838227672221E-2</v>
+      </c>
+      <c r="O99" s="10">
+        <v>0.15813867514038954</v>
+      </c>
+    </row>
+    <row r="103" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G103" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="104" spans="7:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="105" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G105" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H105" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I105" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="106" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G106" s="9">
+        <v>1</v>
+      </c>
+      <c r="H106" s="9">
+        <v>26.470151054288106</v>
+      </c>
+      <c r="I106" s="9">
+        <v>3.529848945711894</v>
+      </c>
+    </row>
+    <row r="107" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G107" s="9">
+        <v>2</v>
+      </c>
+      <c r="H107" s="9">
+        <v>35.780757334720803</v>
+      </c>
+      <c r="I107" s="9">
+        <v>4.2192426652791966</v>
+      </c>
+    </row>
+    <row r="108" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G108" s="9">
+        <v>3</v>
+      </c>
+      <c r="H108" s="9">
+        <v>31.058173490219787</v>
+      </c>
+      <c r="I108" s="9">
+        <v>-1.0581734902197866</v>
+      </c>
+    </row>
+    <row r="109" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G109" s="9">
+        <v>4</v>
+      </c>
+      <c r="H109" s="9">
+        <v>28.436446383973113</v>
+      </c>
+      <c r="I109" s="9">
+        <v>3.563553616026887</v>
+      </c>
+    </row>
+    <row r="110" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G110" s="9">
+        <v>5</v>
+      </c>
+      <c r="H110" s="9">
+        <v>23.745553019414345</v>
+      </c>
+      <c r="I110" s="9">
+        <v>-3.7455530194143449</v>
+      </c>
+    </row>
+    <row r="111" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G111" s="9">
+        <v>6</v>
+      </c>
+      <c r="H111" s="9">
+        <v>36.957059479274804</v>
+      </c>
+      <c r="I111" s="9">
+        <v>-1.9570594792748039</v>
+      </c>
+    </row>
+    <row r="112" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G112" s="9">
+        <v>7</v>
+      </c>
+      <c r="H112" s="9">
+        <v>32.369037043343127</v>
+      </c>
+      <c r="I112" s="9">
+        <v>2.6309629566568731</v>
+      </c>
+    </row>
+    <row r="113" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G113" s="9">
+        <v>8</v>
+      </c>
+      <c r="H113" s="9">
+        <v>35.780757334720803</v>
+      </c>
+      <c r="I113" s="9">
+        <v>4.2192426652791966</v>
+      </c>
+    </row>
+    <row r="114" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G114" s="9">
+        <v>9</v>
+      </c>
+      <c r="H114" s="9">
+        <v>42.860289284901079</v>
+      </c>
+      <c r="I114" s="9">
+        <v>-4.8602892849010786</v>
+      </c>
+    </row>
+    <row r="115" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G115" s="9">
+        <v>10</v>
+      </c>
+      <c r="H115" s="9">
+        <v>40.736429699847001</v>
+      </c>
+      <c r="I115" s="9">
+        <v>-0.73642969984700102</v>
+      </c>
+    </row>
+    <row r="116" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G116" s="9">
+        <v>11</v>
+      </c>
+      <c r="H116" s="9">
+        <v>25.814719277726439</v>
+      </c>
+      <c r="I116" s="9">
+        <v>-0.81471927772643937</v>
+      </c>
+    </row>
+    <row r="117" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G117" s="9">
+        <v>12</v>
+      </c>
+      <c r="H117" s="9">
+        <v>28.701225384540535</v>
+      </c>
+      <c r="I117" s="9">
+        <v>6.2987746154594646</v>
+      </c>
+    </row>
+    <row r="118" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G118" s="9">
+        <v>13</v>
+      </c>
+      <c r="H118" s="9">
+        <v>25.161459409450398</v>
+      </c>
+      <c r="I118" s="9">
+        <v>-5.1614594094503978</v>
+      </c>
+    </row>
+    <row r="119" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G119" s="9">
+        <v>14</v>
+      </c>
+      <c r="H119" s="9">
+        <v>41.444382894865029</v>
+      </c>
+      <c r="I119" s="9">
+        <v>-1.4443828948650292</v>
+      </c>
+    </row>
+    <row r="120" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G120" s="9">
+        <v>15</v>
+      </c>
+      <c r="H120" s="9">
+        <v>27.125582830849776</v>
+      </c>
+      <c r="I120" s="9">
+        <v>-5.1255828308497762</v>
+      </c>
+    </row>
+    <row r="121" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G121" s="9">
+        <v>16</v>
+      </c>
+      <c r="H121" s="9">
+        <v>35.780757334720803</v>
+      </c>
+      <c r="I121" s="9">
+        <v>-3.7807573347208034</v>
+      </c>
+    </row>
+    <row r="122" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G122" s="9">
+        <v>17</v>
+      </c>
+      <c r="H122" s="9">
+        <v>35.780757334720803</v>
+      </c>
+      <c r="I122" s="9">
+        <v>3.2192426652791966</v>
+      </c>
+    </row>
+    <row r="123" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G123" s="9">
+        <v>18</v>
+      </c>
+      <c r="H123" s="9">
+        <v>34.364850944684754</v>
+      </c>
+      <c r="I123" s="9">
+        <v>1.6351490553152459</v>
+      </c>
+    </row>
+    <row r="124" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G124" s="9">
+        <v>19</v>
+      </c>
+      <c r="H124" s="9">
+        <v>26.470151054288106</v>
+      </c>
+      <c r="I124" s="9">
+        <v>-0.470151054288106</v>
+      </c>
+    </row>
+    <row r="125" spans="7:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G125" s="10">
+        <v>20</v>
+      </c>
+      <c r="H125" s="10">
+        <v>25.161459409450398</v>
+      </c>
+      <c r="I125" s="10">
+        <v>-0.16145940945039783</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B135" s="12"/>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B136" s="9">
+        <v>0.86305820838961467</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B137" s="9">
+        <v>0.7448694710686915</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B138" s="9">
+        <v>0.69703249689407121</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B139" s="9">
+        <v>3.8176342759883375</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B140" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" s="11"/>
+      <c r="B143" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C143" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D143" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E143" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F143" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B144" s="9">
+        <v>3</v>
+      </c>
+      <c r="C144" s="9">
+        <v>680.81069655678402</v>
+      </c>
+      <c r="D144" s="9">
+        <v>226.93689885226135</v>
+      </c>
+      <c r="E144" s="9">
+        <v>15.570998875256581</v>
+      </c>
+      <c r="F144" s="9">
+        <v>5.2691509898523856E-5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B145" s="9">
+        <v>16</v>
+      </c>
+      <c r="C145" s="9">
+        <v>233.18930344321598</v>
+      </c>
+      <c r="D145" s="9">
+        <v>14.574331465200999</v>
+      </c>
+      <c r="E145" s="9"/>
+      <c r="F145" s="9"/>
+    </row>
+    <row r="146" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B146" s="10">
+        <v>19</v>
+      </c>
+      <c r="C146" s="10">
+        <v>914</v>
+      </c>
+      <c r="D146" s="10"/>
+      <c r="E146" s="10"/>
+      <c r="F146" s="10"/>
+    </row>
+    <row r="147" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A148" s="11"/>
+      <c r="B148" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C148" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D148" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E148" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F148" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G148" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H148" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I148" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A149" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B149" s="9">
+        <v>8.8641722193746855</v>
+      </c>
+      <c r="C149" s="9">
+        <v>8.2697972262292989</v>
+      </c>
+      <c r="D149" s="9">
+        <v>1.0718729827208107</v>
+      </c>
+      <c r="E149" s="9">
+        <v>0.29967929282409489</v>
+      </c>
+      <c r="F149" s="9">
+        <v>-8.6670147439940397</v>
+      </c>
+      <c r="G149" s="9">
+        <v>26.395359182743412</v>
+      </c>
+      <c r="H149" s="9">
+        <v>-8.6670147439940397</v>
+      </c>
+      <c r="I149" s="9">
+        <v>26.395359182743412</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A150" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B150" s="9">
+        <v>0.61455663762173229</v>
+      </c>
+      <c r="C150" s="9">
+        <v>0.24446161697507574</v>
+      </c>
+      <c r="D150" s="9">
+        <v>2.5139187297627581</v>
+      </c>
+      <c r="E150" s="9">
+        <v>2.3020029389698764E-2</v>
+      </c>
+      <c r="F150" s="9">
+        <v>9.6321160340072542E-2</v>
+      </c>
+      <c r="G150" s="9">
+        <v>1.1327921149033919</v>
+      </c>
+      <c r="H150" s="9">
+        <v>9.6321160340072542E-2</v>
+      </c>
+      <c r="I150" s="9">
+        <v>1.1327921149033919</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A151" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B151" s="9">
+        <v>0.10496402927649612</v>
+      </c>
+      <c r="C151" s="9">
+        <v>0.273766964165779</v>
+      </c>
+      <c r="D151" s="9">
+        <v>0.38340648440304642</v>
+      </c>
+      <c r="E151" s="9">
+        <v>0.70646490396544892</v>
+      </c>
+      <c r="F151" s="9">
+        <v>-0.47539600881025418</v>
+      </c>
+      <c r="G151" s="9">
+        <v>0.68532406736324636</v>
+      </c>
+      <c r="H151" s="9">
+        <v>-0.47539600881025418</v>
+      </c>
+      <c r="I151" s="9">
+        <v>0.68532406736324636</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B152" s="10">
+        <v>-1.8563570057588423</v>
+      </c>
+      <c r="C152" s="10">
+        <v>9.5174903899547392</v>
+      </c>
+      <c r="D152" s="10">
+        <v>-0.19504690098958644</v>
+      </c>
+      <c r="E152" s="10">
+        <v>0.84781150049006115</v>
+      </c>
+      <c r="F152" s="10">
+        <v>-22.032535318711261</v>
+      </c>
+      <c r="G152" s="10">
+        <v>18.319821307193578</v>
+      </c>
+      <c r="H152" s="10">
+        <v>-22.032535318711261</v>
+      </c>
+      <c r="I152" s="10">
+        <v>18.319821307193578</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A158" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B158" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C158" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A159" s="9">
+        <v>1</v>
+      </c>
+      <c r="B159" s="9">
+        <v>26.686314710404922</v>
+      </c>
+      <c r="C159" s="9">
+        <v>3.3136852895950781</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A160" s="9">
+        <v>2</v>
+      </c>
+      <c r="B160" s="9">
+        <v>35.788641889544976</v>
+      </c>
+      <c r="C160" s="9">
+        <v>4.2113581104550235</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="9">
+        <v>3</v>
+      </c>
+      <c r="B161" s="9">
+        <v>30.988211173757051</v>
+      </c>
+      <c r="C161" s="9">
+        <v>-0.98821117375705114</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="9">
+        <v>4</v>
+      </c>
+      <c r="B162" s="9">
+        <v>28.529984623270117</v>
+      </c>
+      <c r="C162" s="9">
+        <v>3.4700153767298829</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="9">
+        <v>5</v>
+      </c>
+      <c r="B163" s="9">
+        <v>23.556790552275096</v>
+      </c>
+      <c r="C163" s="9">
+        <v>-3.5567905522750962</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="9">
+        <v>6</v>
+      </c>
+      <c r="B164" s="9">
+        <v>36.519220912352637</v>
+      </c>
+      <c r="C164" s="9">
+        <v>-1.5192209123526368</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="9">
+        <v>7</v>
+      </c>
+      <c r="B165" s="9">
+        <v>32.217324449000515</v>
+      </c>
+      <c r="C165" s="9">
+        <v>2.7826755509994854</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="9">
+        <v>8</v>
+      </c>
+      <c r="B166" s="9">
+        <v>35.788641889544976</v>
+      </c>
+      <c r="C166" s="9">
+        <v>4.2113581104550235</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="9">
+        <v>9</v>
+      </c>
+      <c r="B167" s="9">
+        <v>42.983848558527264</v>
+      </c>
+      <c r="C167" s="9">
+        <v>-4.9838485585272636</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="9">
+        <v>10</v>
+      </c>
+      <c r="B168" s="9">
+        <v>40.825286557832577</v>
+      </c>
+      <c r="C168" s="9">
+        <v>-0.82528655783257676</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="9">
+        <v>11</v>
+      </c>
+      <c r="B169" s="9">
+        <v>26.07175807278319</v>
+      </c>
+      <c r="C169" s="9">
+        <v>-1.0717580727831901</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="9">
+        <v>12</v>
+      </c>
+      <c r="B170" s="9">
+        <v>28.593435220562696</v>
+      </c>
+      <c r="C170" s="9">
+        <v>6.4065647794373035</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="9">
+        <v>13</v>
+      </c>
+      <c r="B171" s="9">
+        <v>24.995831886071556</v>
+      </c>
+      <c r="C171" s="9">
+        <v>-4.9958318860715565</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="9">
+        <v>14</v>
+      </c>
+      <c r="B172" s="9">
+        <v>41.54480722473081</v>
+      </c>
+      <c r="C172" s="9">
+        <v>-1.5448072247308104</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="9">
+        <v>15</v>
+      </c>
+      <c r="B173" s="9">
+        <v>27.300871348026654</v>
+      </c>
+      <c r="C173" s="9">
+        <v>-5.3008713480266536</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="9">
+        <v>16</v>
+      </c>
+      <c r="B174" s="9">
+        <v>35.788641889544976</v>
+      </c>
+      <c r="C174" s="9">
+        <v>-3.7886418895449765</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="9">
+        <v>17</v>
+      </c>
+      <c r="B175" s="9">
+        <v>35.788641889544976</v>
+      </c>
+      <c r="C175" s="9">
+        <v>3.2113581104550235</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="9">
+        <v>18</v>
+      </c>
+      <c r="B176" s="9">
+        <v>34.349600555748523</v>
+      </c>
+      <c r="C176" s="9">
+        <v>1.6503994442514767</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="9">
+        <v>19</v>
+      </c>
+      <c r="B177" s="9">
+        <v>26.686314710404922</v>
+      </c>
+      <c r="C177" s="9">
+        <v>-0.68631471040492187</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="10">
+        <v>20</v>
+      </c>
+      <c r="B178" s="10">
+        <v>24.995831886071556</v>
+      </c>
+      <c r="C178" s="10">
+        <v>4.1681139284435176E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E584790-7C4A-45FC-90A1-748F57F5AB66}">
+  <dimension ref="A4:Q169"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="G58" sqref="G58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <f>LOG(A5)</f>
+        <v>1.0413926851582251</v>
+      </c>
+      <c r="E5">
+        <f>LOG(B5)</f>
+        <v>1.0413926851582251</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ref="D6:D16" si="0">LOG(A6)</f>
+        <v>1.1139433523068367</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ref="E6:E16" si="1">LOG(B6)</f>
+        <v>1.0413926851582251</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>1.2041199826559248</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>1.0791812460476249</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>24</v>
+      </c>
+      <c r="B8">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>1.3802112417116059</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>1.1139433523068367</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>24</v>
+      </c>
+      <c r="B9">
+        <v>15</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>1.3802112417116059</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>1.1760912590556813</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>26</v>
+      </c>
+      <c r="B10">
+        <v>17</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>1.414973347970818</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>1.2304489213782739</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>37</v>
+      </c>
+      <c r="B11">
+        <v>17</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>1.568201724066995</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>1.2304489213782739</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>38</v>
+      </c>
+      <c r="B12">
+        <v>18</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>1.5797835966168101</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>1.255272505103306</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>39</v>
+      </c>
+      <c r="B13">
+        <v>18</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>1.5910646070264991</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>1.255272505103306</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>43</v>
+      </c>
+      <c r="B14">
+        <v>19</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>1.6334684555795864</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>1.2787536009528289</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>43</v>
+      </c>
+      <c r="B15">
+        <v>19</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>1.6334684555795864</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>1.2787536009528289</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>46</v>
+      </c>
+      <c r="B16">
+        <v>22</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>1.6627578316815741</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>1.3424226808222062</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <v>4.0970000000000004</v>
+      </c>
+      <c r="I20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I22" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="12"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I23" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J23" s="9">
+        <v>0.96855405724408261</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E24">
+        <f>EXP(-1.3596)</f>
+        <v>0.25676346179993748</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J24" s="9">
+        <v>0.93809696180397362</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I25" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J25" s="9">
+        <v>0.92434073109374559</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <f>EXP(0.2092)</f>
+        <v>1.2326915121805042</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J26" s="9">
+        <v>5.9308604918246299E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>1.5</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J27" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="I29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K30" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="L30" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="M30" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N30" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>5</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J31" s="9">
+        <v>2</v>
+      </c>
+      <c r="K31" s="9">
+        <v>0.47974857252059822</v>
+      </c>
+      <c r="L31" s="9">
+        <v>0.23987428626029911</v>
+      </c>
+      <c r="M31" s="9">
+        <v>68.194331831500648</v>
+      </c>
+      <c r="N31" s="9">
+        <v>3.6534556612219623E-6</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <f>(6+7)/2</f>
+        <v>6.5</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J32" s="9">
+        <v>9</v>
+      </c>
+      <c r="K32" s="9">
+        <v>3.165759555613766E-2</v>
+      </c>
+      <c r="L32" s="9">
+        <v>3.517510617348629E-3</v>
+      </c>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+    </row>
+    <row r="33" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>6.5</v>
+      </c>
+      <c r="I33" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J33" s="10">
+        <v>11</v>
+      </c>
+      <c r="K33" s="10">
+        <v>0.51140616807673589</v>
+      </c>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+    </row>
+    <row r="34" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>8.5</v>
+      </c>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K35" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="L35" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M35" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N35" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="O35" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="P35" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q35" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>10.5</v>
+      </c>
+      <c r="I36" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J36" s="9">
+        <v>-0.59047862276080854</v>
+      </c>
+      <c r="K36" s="9">
+        <v>0.34661677483885944</v>
+      </c>
+      <c r="L36" s="9">
+        <v>-1.7035488921022919</v>
+      </c>
+      <c r="M36" s="9">
+        <v>0.12266501683967956</v>
+      </c>
+      <c r="N36" s="9">
+        <v>-1.3745802427085472</v>
+      </c>
+      <c r="O36" s="9">
+        <v>0.1936229971869301</v>
+      </c>
+      <c r="P36" s="9">
+        <v>-1.3745802427085472</v>
+      </c>
+      <c r="Q36" s="9">
+        <v>0.1936229971869301</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>10.5</v>
+      </c>
+      <c r="I37" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="J37" s="9">
+        <v>1.6577338163254025</v>
+      </c>
+      <c r="K37" s="9">
+        <v>0.31045804081731188</v>
+      </c>
+      <c r="L37" s="9">
+        <v>5.3396388509096182</v>
+      </c>
+      <c r="M37" s="9">
+        <v>4.6869641511500444E-4</v>
+      </c>
+      <c r="N37" s="9">
+        <v>0.95542893554222286</v>
+      </c>
+      <c r="O37" s="9">
+        <v>2.3600386971085823</v>
+      </c>
+      <c r="P37" s="9">
+        <v>0.95542893554222286</v>
+      </c>
+      <c r="Q37" s="9">
+        <v>2.3600386971085823</v>
+      </c>
+    </row>
+    <row r="38" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38">
+        <v>13</v>
+      </c>
+      <c r="I38" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J38" s="10">
+        <v>9.0833102027262524E-2</v>
+      </c>
+      <c r="K38" s="10">
+        <v>6.0266898558991512E-2</v>
+      </c>
+      <c r="L38" s="10">
+        <v>1.5071806281577882</v>
+      </c>
+      <c r="M38" s="10">
+        <v>0.16603332588080055</v>
+      </c>
+      <c r="N38" s="10">
+        <v>-4.5500094227592963E-2</v>
+      </c>
+      <c r="O38" s="10">
+        <v>0.22716629828211801</v>
+      </c>
+      <c r="P38" s="10">
+        <v>-4.5500094227592963E-2</v>
+      </c>
+      <c r="Q38" s="10">
+        <v>0.22716629828211801</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="I42" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="I44" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J44" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="K44" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="I45" s="9">
+        <v>1</v>
+      </c>
+      <c r="J45" s="9">
+        <v>1.1358732474998945</v>
+      </c>
+      <c r="K45" s="9">
+        <v>-9.448056234166935E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="I46" s="9">
+        <v>2</v>
+      </c>
+      <c r="J46" s="9">
+        <v>1.1358732474998945</v>
+      </c>
+      <c r="K46" s="9">
+        <v>-2.1929895193057769E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="I47" s="9">
+        <v>3</v>
+      </c>
+      <c r="J47" s="9">
+        <v>1.1985166227565238</v>
+      </c>
+      <c r="K47" s="9">
+        <v>5.6033598994009726E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="I48" s="9">
+        <v>4</v>
+      </c>
+      <c r="J48" s="9">
+        <v>1.2561429418291163</v>
+      </c>
+      <c r="K48" s="9">
+        <v>0.12406829988248957</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="I49" s="9">
+        <v>5</v>
+      </c>
+      <c r="J49" s="9">
+        <v>1.3591676284605136</v>
+      </c>
+      <c r="K49" s="9">
+        <v>2.1043613251092275E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="I50" s="9">
+        <v>6</v>
+      </c>
+      <c r="J50" s="9">
+        <v>1.4492781634690728</v>
+      </c>
+      <c r="K50" s="9">
+        <v>-3.4304815498254815E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="I51" s="9">
+        <v>7</v>
+      </c>
+      <c r="J51" s="9">
+        <v>1.5401112654963354</v>
+      </c>
+      <c r="K51" s="9">
+        <v>2.8090458570659615E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B52" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="I52" s="9">
+        <v>8</v>
+      </c>
+      <c r="J52" s="9">
+        <v>1.5812621596797058</v>
+      </c>
+      <c r="K52" s="9">
+        <v>-1.4785630628957325E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="I53" s="9">
+        <v>9</v>
+      </c>
+      <c r="J53" s="9">
+        <v>1.5812621596797058</v>
+      </c>
+      <c r="K53" s="9">
+        <v>9.8024473467932527E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1</v>
+      </c>
+      <c r="I54" s="9">
+        <v>10</v>
+      </c>
+      <c r="J54" s="9">
+        <v>1.6201875663138379</v>
+      </c>
+      <c r="K54" s="9">
+        <v>1.3280889265748552E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55">
+        <v>24.2</v>
+      </c>
+      <c r="I55" s="9">
+        <v>11</v>
+      </c>
+      <c r="J55" s="9">
+        <v>1.6201875663138379</v>
+      </c>
+      <c r="K55" s="9">
+        <v>1.3280889265748552E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B56">
+        <v>4</v>
+      </c>
+      <c r="C56">
+        <v>30.4</v>
+      </c>
+      <c r="I56" s="10">
+        <v>12</v>
+      </c>
+      <c r="J56" s="10">
+        <v>1.7257339530676277</v>
+      </c>
+      <c r="K56" s="10">
+        <v>-6.2976121386053574E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>5</v>
+      </c>
+      <c r="C57">
+        <v>33.5</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>6</v>
+      </c>
+      <c r="C58">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <v>7</v>
+      </c>
+      <c r="C59">
+        <v>39.700000000000003</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <v>8</v>
+      </c>
+      <c r="C60">
+        <v>42.8</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <v>10</v>
+      </c>
+      <c r="C61">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <v>12</v>
+      </c>
+      <c r="C62">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <v>15</v>
+      </c>
+      <c r="C63">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <v>17</v>
+      </c>
+      <c r="C64">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <v>19</v>
+      </c>
+      <c r="C65">
+        <v>76.400000000000006</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B135" s="12"/>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B136" s="9">
+        <v>0.96855405724408261</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B137" s="9">
+        <v>0.93809696180397362</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B138" s="9">
+        <v>0.92434073109374559</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B139" s="9">
+        <v>5.9308604918246299E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B140" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" s="11"/>
+      <c r="B143" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C143" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D143" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E143" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F143" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B144" s="9">
+        <v>2</v>
+      </c>
+      <c r="C144" s="9">
+        <v>0.47974857252059822</v>
+      </c>
+      <c r="D144" s="9">
+        <v>0.23987428626029911</v>
+      </c>
+      <c r="E144" s="9">
+        <v>68.194331831500648</v>
+      </c>
+      <c r="F144" s="9">
+        <v>3.6534556612219623E-6</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B145" s="9">
+        <v>9</v>
+      </c>
+      <c r="C145" s="9">
+        <v>3.165759555613766E-2</v>
+      </c>
+      <c r="D145" s="9">
+        <v>3.517510617348629E-3</v>
+      </c>
+      <c r="E145" s="9"/>
+      <c r="F145" s="9"/>
+    </row>
+    <row r="146" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B146" s="10">
+        <v>11</v>
+      </c>
+      <c r="C146" s="10">
+        <v>0.51140616807673589</v>
+      </c>
+      <c r="D146" s="10"/>
+      <c r="E146" s="10"/>
+      <c r="F146" s="10"/>
+    </row>
+    <row r="147" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A148" s="11"/>
+      <c r="B148" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C148" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D148" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E148" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F148" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G148" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H148" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I148" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A149" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B149" s="9">
+        <v>-0.59047862276080854</v>
+      </c>
+      <c r="C149" s="9">
+        <v>0.34661677483885944</v>
+      </c>
+      <c r="D149" s="9">
+        <v>-1.7035488921022919</v>
+      </c>
+      <c r="E149" s="9">
+        <v>0.12266501683967956</v>
+      </c>
+      <c r="F149" s="9">
+        <v>-1.3745802427085472</v>
+      </c>
+      <c r="G149" s="9">
+        <v>0.1936229971869301</v>
+      </c>
+      <c r="H149" s="9">
+        <v>-1.3745802427085472</v>
+      </c>
+      <c r="I149" s="9">
+        <v>0.1936229971869301</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A150" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B150" s="9">
+        <v>1.6577338163254025</v>
+      </c>
+      <c r="C150" s="9">
+        <v>0.31045804081731188</v>
+      </c>
+      <c r="D150" s="9">
+        <v>5.3396388509096182</v>
+      </c>
+      <c r="E150" s="9">
+        <v>4.6869641511500444E-4</v>
+      </c>
+      <c r="F150" s="9">
+        <v>0.95542893554222286</v>
+      </c>
+      <c r="G150" s="9">
+        <v>2.3600386971085823</v>
+      </c>
+      <c r="H150" s="9">
+        <v>0.95542893554222286</v>
+      </c>
+      <c r="I150" s="9">
+        <v>2.3600386971085823</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B151" s="10">
+        <v>9.0833102027262524E-2</v>
+      </c>
+      <c r="C151" s="10">
+        <v>6.0266898558991512E-2</v>
+      </c>
+      <c r="D151" s="10">
+        <v>1.5071806281577882</v>
+      </c>
+      <c r="E151" s="10">
+        <v>0.16603332588080055</v>
+      </c>
+      <c r="F151" s="10">
+        <v>-4.5500094227592963E-2</v>
+      </c>
+      <c r="G151" s="10">
+        <v>0.22716629828211801</v>
+      </c>
+      <c r="H151" s="10">
+        <v>-4.5500094227592963E-2</v>
+      </c>
+      <c r="I151" s="10">
+        <v>0.22716629828211801</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A157" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B157" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C157" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A158" s="9">
+        <v>1</v>
+      </c>
+      <c r="B158" s="9">
+        <v>1.1358732474998945</v>
+      </c>
+      <c r="C158" s="9">
+        <v>-9.448056234166935E-2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A159" s="9">
+        <v>2</v>
+      </c>
+      <c r="B159" s="9">
+        <v>1.1358732474998945</v>
+      </c>
+      <c r="C159" s="9">
+        <v>-2.1929895193057769E-2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A160" s="9">
+        <v>3</v>
+      </c>
+      <c r="B160" s="9">
+        <v>1.1985166227565238</v>
+      </c>
+      <c r="C160" s="9">
+        <v>5.6033598994009726E-3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="9">
+        <v>4</v>
+      </c>
+      <c r="B161" s="9">
+        <v>1.2561429418291163</v>
+      </c>
+      <c r="C161" s="9">
+        <v>0.12406829988248957</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="9">
+        <v>5</v>
+      </c>
+      <c r="B162" s="9">
+        <v>1.3591676284605136</v>
+      </c>
+      <c r="C162" s="9">
+        <v>2.1043613251092275E-2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="9">
+        <v>6</v>
+      </c>
+      <c r="B163" s="9">
+        <v>1.4492781634690728</v>
+      </c>
+      <c r="C163" s="9">
+        <v>-3.4304815498254815E-2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="9">
+        <v>7</v>
+      </c>
+      <c r="B164" s="9">
+        <v>1.5401112654963354</v>
+      </c>
+      <c r="C164" s="9">
+        <v>2.8090458570659615E-2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="9">
+        <v>8</v>
+      </c>
+      <c r="B165" s="9">
+        <v>1.5812621596797058</v>
+      </c>
+      <c r="C165" s="9">
+        <v>-1.4785630628957325E-3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="9">
+        <v>9</v>
+      </c>
+      <c r="B166" s="9">
+        <v>1.5812621596797058</v>
+      </c>
+      <c r="C166" s="9">
+        <v>9.8024473467932527E-3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="9">
+        <v>10</v>
+      </c>
+      <c r="B167" s="9">
+        <v>1.6201875663138379</v>
+      </c>
+      <c r="C167" s="9">
+        <v>1.3280889265748552E-2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="9">
+        <v>11</v>
+      </c>
+      <c r="B168" s="9">
+        <v>1.6201875663138379</v>
+      </c>
+      <c r="C168" s="9">
+        <v>1.3280889265748552E-2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="10">
+        <v>12</v>
+      </c>
+      <c r="B169" s="10">
+        <v>1.7257339530676277</v>
+      </c>
+      <c r="C169" s="10">
+        <v>-6.2976121386053574E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E002AC9-46B7-4DF8-AD98-B5B5EEBF7B1A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>